--- a/data/trans_camb/P8_2_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P8_2_R-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 7,43</t>
+          <t>-0,55; 7,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 8,3</t>
+          <t>-0,43; 8,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,28; 11,18</t>
+          <t>1,53; 10,76</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 7,35</t>
+          <t>-0,36; 7,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 7,5</t>
+          <t>-1,04; 7,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,21; 13,46</t>
+          <t>5,84; 13,52</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,73; 6,42</t>
+          <t>0,54; 6,33</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,33; 6,48</t>
+          <t>0,37; 6,62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,65; 11,69</t>
+          <t>5,62; 11,84</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 25,82</t>
+          <t>-2,17; 25,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 30,19</t>
+          <t>-1,34; 28,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,85; 39,44</t>
+          <t>4,87; 38,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 16,87</t>
+          <t>-0,73; 16,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 16,97</t>
+          <t>-2,24; 17,45</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,96; 30,61</t>
+          <t>12,19; 30,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,86; 17,26</t>
+          <t>1,34; 16,92</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,81; 17,6</t>
+          <t>0,99; 17,98</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14,1; 31,38</t>
+          <t>14,1; 31,96</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,2; 3,71</t>
+          <t>0,31; 3,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 4,49</t>
+          <t>1,01; 4,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,81; 14,63</t>
+          <t>5,88; 15,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,81; 6,08</t>
+          <t>1,71; 6,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,05; 7,33</t>
+          <t>3,06; 7,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,07; 7,95</t>
+          <t>3,02; 7,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,59; 4,44</t>
+          <t>1,28; 4,25</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,56; 5,41</t>
+          <t>2,52; 5,23</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,38; 10,66</t>
+          <t>5,57; 10,94</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,5; 62,85</t>
+          <t>4,35; 64,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,41; 77,7</t>
+          <t>11,94; 77,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>75,28; 234,29</t>
+          <t>79,3; 226,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,27; 78,63</t>
+          <t>17,64; 77,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>31,2; 95,04</t>
+          <t>31,68; 99,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>33,13; 103,24</t>
+          <t>32,01; 104,04</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>19,42; 64,31</t>
+          <t>15,67; 60,25</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>31,44; 78,16</t>
+          <t>29,35; 73,41</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>65,01; 144,52</t>
+          <t>66,84; 145,11</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 4,53</t>
+          <t>-2,46; 4,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 4,92</t>
+          <t>-1,77; 5,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 3,37</t>
+          <t>-2,37; 3,41</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 1,97</t>
+          <t>-5,79; 2,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,47; 1,82</t>
+          <t>-5,76; 2,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 2,05</t>
+          <t>-4,0; 2,52</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 2,62</t>
+          <t>-2,81; 2,59</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 2,44</t>
+          <t>-2,47; 2,59</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 2,08</t>
+          <t>-2,24; 2,08</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-28,17; 93,12</t>
+          <t>-32,76; 103,81</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-23,07; 99,95</t>
+          <t>-22,85; 112,47</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-30,93; 73,58</t>
+          <t>-30,38; 71,61</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-44,59; 25,86</t>
+          <t>-46,85; 27,06</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-46,36; 22,8</t>
+          <t>-47,25; 24,83</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-34,34; 25,23</t>
+          <t>-32,88; 33,34</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-27,83; 39,31</t>
+          <t>-29,58; 37,78</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-27,94; 35,68</t>
+          <t>-26,84; 38,92</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-23,61; 31,61</t>
+          <t>-23,95; 31,98</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 3,48</t>
+          <t>-0,17; 3,46</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 2,25</t>
+          <t>-1,02; 2,31</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,07; 7,48</t>
+          <t>0,86; 7,5</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,55; 4,54</t>
+          <t>0,24; 4,6</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 1,62</t>
+          <t>-2,62; 1,6</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 1,19</t>
+          <t>-3,46; 1,39</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,69; 3,42</t>
+          <t>0,69; 3,54</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 1,45</t>
+          <t>-1,16; 1,62</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 3,12</t>
+          <t>-0,34; 3,43</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 26,38</t>
+          <t>-1,15; 26,58</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 16,97</t>
+          <t>-6,94; 17,84</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>7,19; 54,03</t>
+          <t>5,93; 55,86</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,89; 20,46</t>
+          <t>0,85; 20,78</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-10,75; 7,31</t>
+          <t>-10,77; 7,3</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-13,77; 5,22</t>
+          <t>-14,53; 6,18</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,57; 18,9</t>
+          <t>3,62; 19,7</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 7,89</t>
+          <t>-5,96; 8,86</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 17,32</t>
+          <t>-1,89; 19,02</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P8_2_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P8_2_R-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 7,25</t>
+          <t>-0,69; 7,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 8,02</t>
+          <t>-0,62; 8,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,53; 10,76</t>
+          <t>1,52; 10,69</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 7,23</t>
+          <t>-0,94; 7,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 7,53</t>
+          <t>-0,91; 7,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,84; 13,52</t>
+          <t>5,46; 13,48</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,54; 6,33</t>
+          <t>0,21; 6,22</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,37; 6,62</t>
+          <t>0,76; 6,86</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,62; 11,84</t>
+          <t>5,75; 11,98</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 25,84</t>
+          <t>-2,37; 26,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 28,75</t>
+          <t>-1,57; 30,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,87; 38,34</t>
+          <t>4,64; 38,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 16,6</t>
+          <t>-1,96; 16,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 17,45</t>
+          <t>-1,97; 17,48</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>12,19; 30,73</t>
+          <t>11,5; 30,77</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,34; 16,92</t>
+          <t>0,4; 16,5</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,99; 17,98</t>
+          <t>1,96; 18,41</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14,1; 31,96</t>
+          <t>14,27; 32,03</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,31; 3,74</t>
+          <t>0,24; 4,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,01; 4,53</t>
+          <t>1,12; 4,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,88; 15,07</t>
+          <t>5,87; 15,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,71; 6,14</t>
+          <t>1,82; 6,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,06; 7,47</t>
+          <t>3,14; 7,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,02; 7,96</t>
+          <t>3,54; 7,91</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,28; 4,25</t>
+          <t>1,53; 4,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,52; 5,23</t>
+          <t>2,62; 5,37</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,57; 10,94</t>
+          <t>5,62; 10,76</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,35; 64,63</t>
+          <t>2,87; 67,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,94; 77,66</t>
+          <t>13,27; 82,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>79,3; 226,81</t>
+          <t>79,55; 265,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,64; 77,98</t>
+          <t>17,74; 80,21</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>31,68; 99,03</t>
+          <t>31,68; 92,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>32,01; 104,04</t>
+          <t>37,55; 104,26</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,67; 60,25</t>
+          <t>16,31; 63,69</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>29,35; 73,41</t>
+          <t>31,0; 77,23</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>66,84; 145,11</t>
+          <t>66,59; 143,09</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 4,8</t>
+          <t>-2,07; 4,36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 5,07</t>
+          <t>-1,93; 4,64</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 3,41</t>
+          <t>-2,18; 3,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 2,13</t>
+          <t>-5,68; 1,89</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 2,0</t>
+          <t>-5,66; 2,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 2,52</t>
+          <t>-4,4; 2,27</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 2,59</t>
+          <t>-2,84; 2,36</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 2,59</t>
+          <t>-2,51; 2,51</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 2,08</t>
+          <t>-2,24; 2,05</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-32,76; 103,81</t>
+          <t>-27,6; 88,06</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-22,85; 112,47</t>
+          <t>-25,21; 93,44</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-30,38; 71,61</t>
+          <t>-27,72; 78,66</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-46,85; 27,06</t>
+          <t>-48,3; 23,8</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-47,25; 24,83</t>
+          <t>-45,32; 23,78</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-32,88; 33,34</t>
+          <t>-35,16; 28,13</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-29,58; 37,78</t>
+          <t>-30,28; 35,08</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-26,84; 38,92</t>
+          <t>-27,91; 36,71</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-23,95; 31,98</t>
+          <t>-23,41; 30,51</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 3,46</t>
+          <t>-0,16; 3,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 2,31</t>
+          <t>-1,05; 2,37</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,86; 7,5</t>
+          <t>0,78; 7,38</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,24; 4,6</t>
+          <t>0,45; 4,7</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 1,6</t>
+          <t>-2,31; 1,72</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 1,39</t>
+          <t>-3,24; 1,32</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,69; 3,54</t>
+          <t>0,7; 3,41</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 1,62</t>
+          <t>-1,27; 1,47</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 3,43</t>
+          <t>-0,29; 3,33</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 26,58</t>
+          <t>-1,09; 25,84</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-6,94; 17,84</t>
+          <t>-7,19; 17,76</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>5,93; 55,86</t>
+          <t>4,93; 54,3</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,85; 20,78</t>
+          <t>1,92; 21,14</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-10,77; 7,3</t>
+          <t>-9,78; 7,69</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-14,53; 6,18</t>
+          <t>-13,38; 5,96</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,62; 19,7</t>
+          <t>3,4; 18,73</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 8,86</t>
+          <t>-6,61; 8,39</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 19,02</t>
+          <t>-1,52; 17,76</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P8_2_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P8_2_R-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 7,41</t>
+          <t>-1,16; 7,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 8,29</t>
+          <t>-0,56; 8,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,52; 10,69</t>
+          <t>1,28; 11,18</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 7,25</t>
+          <t>-0,35; 7,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 7,68</t>
+          <t>-1,33; 7,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,46; 13,48</t>
+          <t>5,21; 13,46</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,21; 6,22</t>
+          <t>0,73; 6,42</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,76; 6,86</t>
+          <t>0,33; 6,48</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,75; 11,98</t>
+          <t>5,65; 11,69</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 26,37</t>
+          <t>-3,98; 25,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 30,36</t>
+          <t>-1,9; 30,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,64; 38,41</t>
+          <t>3,85; 39,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 16,95</t>
+          <t>-0,71; 16,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 17,48</t>
+          <t>-2,75; 16,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,5; 30,77</t>
+          <t>10,96; 30,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,4; 16,5</t>
+          <t>1,86; 17,26</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,96; 18,41</t>
+          <t>0,81; 17,6</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14,27; 32,03</t>
+          <t>14,1; 31,38</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,24; 4,0</t>
+          <t>0,2; 3,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,12; 4,76</t>
+          <t>1,0; 4,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,87; 15,76</t>
+          <t>5,81; 14,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,82; 6,18</t>
+          <t>1,81; 6,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,14; 7,16</t>
+          <t>3,05; 7,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,54; 7,91</t>
+          <t>3,07; 7,95</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,53; 4,44</t>
+          <t>1,59; 4,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,62; 5,37</t>
+          <t>2,56; 5,41</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,62; 10,76</t>
+          <t>5,38; 10,66</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,87; 67,51</t>
+          <t>2,5; 62,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,27; 82,17</t>
+          <t>13,41; 77,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>79,55; 265,7</t>
+          <t>75,28; 234,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,74; 80,21</t>
+          <t>17,27; 78,63</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>31,68; 92,28</t>
+          <t>31,2; 95,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>37,55; 104,26</t>
+          <t>33,13; 103,24</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,31; 63,69</t>
+          <t>19,42; 64,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>31,0; 77,23</t>
+          <t>31,44; 78,16</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>66,59; 143,09</t>
+          <t>65,01; 144,52</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 4,36</t>
+          <t>-2,15; 4,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 4,64</t>
+          <t>-1,76; 4,92</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 3,38</t>
+          <t>-2,41; 3,37</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 1,89</t>
+          <t>-5,42; 1,97</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,66; 2,0</t>
+          <t>-5,47; 1,82</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 2,27</t>
+          <t>-4,38; 2,05</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 2,36</t>
+          <t>-2,61; 2,62</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 2,51</t>
+          <t>-2,61; 2,44</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 2,05</t>
+          <t>-2,26; 2,08</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-27,6; 88,06</t>
+          <t>-28,17; 93,12</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-25,21; 93,44</t>
+          <t>-23,07; 99,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-27,72; 78,66</t>
+          <t>-30,93; 73,58</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-48,3; 23,8</t>
+          <t>-44,59; 25,86</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-45,32; 23,78</t>
+          <t>-46,36; 22,8</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-35,16; 28,13</t>
+          <t>-34,34; 25,23</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-30,28; 35,08</t>
+          <t>-27,83; 39,31</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-27,91; 36,71</t>
+          <t>-27,94; 35,68</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-23,41; 30,51</t>
+          <t>-23,61; 31,61</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 3,36</t>
+          <t>-0,08; 3,48</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 2,37</t>
+          <t>-1,16; 2,25</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,78; 7,38</t>
+          <t>1,07; 7,48</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,45; 4,7</t>
+          <t>0,55; 4,54</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 1,72</t>
+          <t>-2,57; 1,62</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 1,32</t>
+          <t>-3,29; 1,19</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,7; 3,41</t>
+          <t>0,69; 3,42</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 1,47</t>
+          <t>-1,35; 1,45</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 3,33</t>
+          <t>-0,45; 3,12</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 25,84</t>
+          <t>-0,54; 26,38</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-7,19; 17,76</t>
+          <t>-7,74; 16,97</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4,93; 54,3</t>
+          <t>7,19; 54,03</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,92; 21,14</t>
+          <t>1,89; 20,46</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-9,78; 7,69</t>
+          <t>-10,75; 7,31</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-13,38; 5,96</t>
+          <t>-13,77; 5,22</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,4; 18,73</t>
+          <t>3,57; 18,9</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-6,61; 8,39</t>
+          <t>-7,05; 7,89</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 17,76</t>
+          <t>-2,35; 17,32</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P8_2_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P8_2_R-Estudios-trans_camb.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,17</t>
+          <t>5,75</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>9,43</t>
+          <t>9,02</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>8,87</t>
+          <t>8,23</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,28; 11,18</t>
+          <t>0,88; 11,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,21; 13,46</t>
+          <t>4,78; 12,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,65; 11,69</t>
+          <t>5,12; 11,1</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>20,67%</t>
+          <t>19,26%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>20,68%</t>
+          <t>19,78%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>22,95%</t>
+          <t>21,28%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,85; 39,44</t>
+          <t>2,55; 38,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,96; 30,61</t>
+          <t>10,11; 29,43</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14,1; 31,38</t>
+          <t>12,82; 29,84</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,55</t>
+          <t>15,45</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,95</t>
+          <t>4,73</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>7,28</t>
+          <t>10,17</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,81; 14,63</t>
+          <t>5,59; 34,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,07; 7,95</t>
+          <t>0,44; 7,19</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,38; 10,66</t>
+          <t>4,78; 25,38</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>127,44%</t>
+          <t>230,24%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>68,76%</t>
+          <t>54,6%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>95,1%</t>
+          <t>132,93%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>75,28; 234,29</t>
+          <t>78,59; 554,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>33,13; 103,24</t>
+          <t>7,47; 91,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>65,01; 144,52</t>
+          <t>59,55; 325,19</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,96</t>
+          <t>-1,1</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>-0,16</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 3,37</t>
+          <t>-2,5; 3,23</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 2,05</t>
+          <t>-4,47; 1,87</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 2,08</t>
+          <t>-2,41; 1,91</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>9,91%</t>
+          <t>7,63%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-9,36%</t>
+          <t>-10,8%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>-1,92%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-30,93; 73,58</t>
+          <t>-31,3; 71,2</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-34,34; 25,23</t>
+          <t>-35,03; 23,27</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-23,61; 31,61</t>
+          <t>-25,26; 28,76</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,01</t>
+          <t>7,36</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,76</t>
+          <t>-2,12</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>2,55</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,07; 7,48</t>
+          <t>0,92; 24,58</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 1,19</t>
+          <t>-6,47; 0,09</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 3,12</t>
+          <t>-0,94; 12,39</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>21,58%</t>
+          <t>52,85%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-3,27%</t>
+          <t>-9,12%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>6,51%</t>
+          <t>13,64%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>7,19; 54,03</t>
+          <t>6,42; 176,95</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-13,77; 5,22</t>
+          <t>-27,03; 0,26</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 17,32</t>
+          <t>-5,06; 67,11</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P8_2_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P8_2_R-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 7,43</t>
+          <t>-1,11; 7,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 8,3</t>
+          <t>-0,64; 7,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,88; 11,0</t>
+          <t>1,23; 10,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 7,35</t>
+          <t>-0,47; 7,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 7,5</t>
+          <t>-1,24; 7,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,78; 12,92</t>
+          <t>5,03; 12,86</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,73; 6,42</t>
+          <t>0,63; 6,27</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,33; 6,48</t>
+          <t>0,47; 6,77</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,12; 11,1</t>
+          <t>5,06; 11,24</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 25,82</t>
+          <t>-3,55; 26,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 30,19</t>
+          <t>-2,35; 27,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,55; 38,52</t>
+          <t>3,93; 39,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 16,87</t>
+          <t>-0,99; 16,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 16,97</t>
+          <t>-2,6; 16,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,11; 29,43</t>
+          <t>10,76; 29,69</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,86; 17,26</t>
+          <t>1,63; 16,86</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,81; 17,6</t>
+          <t>1,22; 18,24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>12,82; 29,84</t>
+          <t>12,67; 30,04</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,2; 3,71</t>
+          <t>0,31; 4,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 4,49</t>
+          <t>1,0; 4,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,59; 34,84</t>
+          <t>5,58; 40,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,81; 6,08</t>
+          <t>1,78; 6,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,05; 7,33</t>
+          <t>2,89; 7,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,44; 7,19</t>
+          <t>0,36; 6,95</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,59; 4,44</t>
+          <t>1,51; 4,32</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,56; 5,41</t>
+          <t>2,53; 5,35</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,78; 25,38</t>
+          <t>4,95; 23,98</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,5; 62,85</t>
+          <t>3,95; 68,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,41; 77,7</t>
+          <t>12,38; 72,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>78,59; 554,08</t>
+          <t>79,32; 726,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,27; 78,63</t>
+          <t>17,86; 79,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>31,2; 95,04</t>
+          <t>28,36; 97,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,47; 91,1</t>
+          <t>5,08; 87,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>19,42; 64,31</t>
+          <t>18,09; 61,83</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>31,44; 78,16</t>
+          <t>30,31; 75,92</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>59,55; 325,19</t>
+          <t>63,86; 342,72</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 4,53</t>
+          <t>-2,11; 4,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 4,92</t>
+          <t>-2,04; 4,68</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 3,23</t>
+          <t>-2,63; 3,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 1,97</t>
+          <t>-5,88; 1,9</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,47; 1,82</t>
+          <t>-5,28; 2,42</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 1,87</t>
+          <t>-4,71; 2,03</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 2,62</t>
+          <t>-2,84; 2,41</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 2,44</t>
+          <t>-2,33; 2,65</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 1,91</t>
+          <t>-2,46; 1,8</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-28,17; 93,12</t>
+          <t>-29,64; 97,51</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-23,07; 99,95</t>
+          <t>-26,85; 97,93</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-31,3; 71,2</t>
+          <t>-32,52; 64,66</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-44,59; 25,86</t>
+          <t>-46,56; 26,38</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-46,36; 22,8</t>
+          <t>-43,51; 34,03</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-35,03; 23,27</t>
+          <t>-37,26; 24,05</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-27,83; 39,31</t>
+          <t>-30,5; 34,85</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-27,94; 35,68</t>
+          <t>-26,19; 40,34</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-25,26; 28,76</t>
+          <t>-25,55; 26,0</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 3,48</t>
+          <t>-0,02; 3,48</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 2,25</t>
+          <t>-1,13; 2,25</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,92; 24,58</t>
+          <t>0,83; 24,6</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,55; 4,54</t>
+          <t>0,34; 4,47</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 1,62</t>
+          <t>-2,39; 1,81</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 0,09</t>
+          <t>-5,93; 0,28</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,69; 3,42</t>
+          <t>0,64; 3,39</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 1,45</t>
+          <t>-1,22; 1,46</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 12,39</t>
+          <t>-0,97; 13,79</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 26,38</t>
+          <t>-0,28; 25,89</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 16,97</t>
+          <t>-7,78; 17,02</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>6,42; 176,95</t>
+          <t>6,16; 190,09</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,89; 20,46</t>
+          <t>1,44; 20,32</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-10,75; 7,31</t>
+          <t>-9,76; 8,16</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-27,03; 0,26</t>
+          <t>-25,2; 1,27</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,57; 18,9</t>
+          <t>3,28; 18,74</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 7,89</t>
+          <t>-6,35; 8,1</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 67,11</t>
+          <t>-5,14; 75,87</t>
         </is>
       </c>
     </row>
